--- a/src/main/resources/templates/PatternInterReport.xlsx
+++ b/src/main/resources/templates/PatternInterReport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stepankonasenko/Documents/javaWork/практика-обучение/SpringTestReportsBot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stepankonasenko/Documents/javaWork/практика-обучение/SpringTestReportsBot/src/main/resources/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6DB870-1509-5F40-8539-E4345948939A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D6FB56-03DC-044C-A6DC-BF52DE9182D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28420" windowHeight="15980" xr2:uid="{082E3804-15BA-084E-9FB2-E5566443FF13}"/>
   </bookViews>
@@ -450,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -479,9 +479,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -518,6 +515,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -556,33 +580,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -802,15 +799,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -931,15 +919,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1314,21 +1293,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1393,21 +1357,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1757,12 +1706,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1818,12 +1761,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2456,24 +2393,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2483,24 +2402,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2723,24 +2624,6 @@
               <c:f>Лист1!$A$30:$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="6">
                   <c:v>Всего:</c:v>
                 </c:pt>
@@ -2753,27 +2636,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2814,24 +2676,6 @@
               <c:f>Лист1!$A$30:$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="6">
                   <c:v>Всего:</c:v>
                 </c:pt>
@@ -2844,27 +2688,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3338,10 +3161,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>719</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3529,21 +3352,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3553,21 +3361,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3607,21 +3400,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3631,21 +3409,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3685,21 +3448,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3709,21 +3457,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3765,21 +3498,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3789,21 +3507,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4150,24 +3853,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -4177,24 +3862,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4234,24 +3901,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -4261,24 +3910,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4318,24 +3949,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -4345,24 +3958,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4402,24 +3997,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -4429,24 +4006,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9559,7 +9118,7 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="43" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9569,188 +9128,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="8" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38">
-        <v>0</v>
-      </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="21" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:10" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="20">
+        <f>_xlfn.DAYS(B6,B5)-B7</f>
+        <v>353</v>
+      </c>
+      <c r="G3" s="20">
+        <f>B7</f>
+        <v>44</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+    </row>
+    <row r="4" spans="1:10" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="33">
         <v>0</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33">
         <v>0</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="21">
-        <f>_xlfn.DAYS(B6,B5)-B7</f>
-        <v>719</v>
-      </c>
-      <c r="G3" s="21">
-        <f>B7</f>
-        <v>32</v>
-      </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-    </row>
-    <row r="4" spans="1:10" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="25">
-        <v>0</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25">
-        <v>0</v>
-      </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
     </row>
     <row r="5" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="37">
-        <v>1</v>
+      <c r="B5" s="23">
+        <v>40461</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="37">
-        <v>732</v>
+      <c r="B6" s="23">
+        <v>40858</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:10" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="17">
-        <v>12</v>
+      <c r="B7" s="16">
+        <v>44</v>
       </c>
-      <c r="C7" s="17">
-        <v>0</v>
-      </c>
-      <c r="D7" s="17">
-        <v>0</v>
-      </c>
-      <c r="E7" s="17">
-        <v>0</v>
-      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="41"/>
     </row>
     <row r="9" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="44">
-        <f>A30</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="44">
-        <f>A31</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="44">
-        <f>A32</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="44">
-        <f>A33</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="44">
-        <f>A34</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="44">
-        <f>A35</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="17">
-        <v>0</v>
-      </c>
-      <c r="C10" s="17">
-        <v>0</v>
-      </c>
-      <c r="D10" s="17">
-        <v>0</v>
-      </c>
-      <c r="E10" s="17">
-        <v>0</v>
-      </c>
-      <c r="F10" s="17">
-        <v>0</v>
-      </c>
-      <c r="G10" s="17">
-        <v>0</v>
-      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -9759,309 +9276,185 @@
       <c r="A11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="45">
-        <v>0</v>
-      </c>
-      <c r="C11" s="45">
-        <v>0</v>
-      </c>
-      <c r="D11" s="45">
-        <v>0</v>
-      </c>
-      <c r="E11" s="45">
-        <v>0</v>
-      </c>
-      <c r="F11" s="17">
-        <v>0</v>
-      </c>
-      <c r="G11" s="17">
-        <v>0</v>
-      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:10" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="24"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="1:10" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+    </row>
+    <row r="15" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-    </row>
-    <row r="14" spans="1:10" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-    </row>
-    <row r="15" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17">
-        <v>0</v>
-      </c>
-      <c r="B16" s="17">
-        <v>0</v>
-      </c>
-      <c r="C16" s="17">
-        <v>0</v>
-      </c>
-      <c r="D16" s="17">
-        <v>0</v>
-      </c>
-      <c r="E16" s="17">
-        <v>0</v>
-      </c>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="17">
-        <v>0</v>
-      </c>
-      <c r="B17" s="17">
-        <v>0</v>
-      </c>
-      <c r="C17" s="17">
-        <v>0</v>
-      </c>
-      <c r="D17" s="17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="17">
-        <v>0</v>
-      </c>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17">
-        <v>0</v>
-      </c>
-      <c r="B18" s="17">
-        <v>0</v>
-      </c>
-      <c r="C18" s="17">
-        <v>0</v>
-      </c>
-      <c r="D18" s="17">
-        <v>0</v>
-      </c>
-      <c r="E18" s="17">
-        <v>0</v>
-      </c>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="17">
-        <v>0</v>
-      </c>
-      <c r="B19" s="17">
-        <v>0</v>
-      </c>
-      <c r="C19" s="17">
-        <v>0</v>
-      </c>
-      <c r="D19" s="17">
-        <v>0</v>
-      </c>
-      <c r="E19" s="17">
-        <v>0</v>
-      </c>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="5"/>
     </row>
     <row r="20" spans="1:6" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
-        <v>0</v>
-      </c>
-      <c r="B20" s="17">
-        <v>0</v>
-      </c>
-      <c r="C20" s="17">
-        <v>0</v>
-      </c>
-      <c r="D20" s="17">
-        <v>0</v>
-      </c>
-      <c r="E20" s="17">
-        <v>0</v>
-      </c>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="19"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="17">
-        <v>0</v>
-      </c>
-      <c r="B22" s="17">
-        <v>0</v>
-      </c>
-      <c r="C22" s="17">
-        <v>0</v>
-      </c>
-      <c r="D22" s="17">
-        <v>0</v>
-      </c>
-      <c r="E22" s="17">
-        <v>0</v>
-      </c>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="17">
-        <v>0</v>
-      </c>
-      <c r="B23" s="17">
-        <v>0</v>
-      </c>
-      <c r="C23" s="17">
-        <v>0</v>
-      </c>
-      <c r="D23" s="17">
-        <v>0</v>
-      </c>
-      <c r="E23" s="17">
-        <v>0</v>
-      </c>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
       <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="17">
-        <v>0</v>
-      </c>
-      <c r="B24" s="17">
-        <v>0</v>
-      </c>
-      <c r="C24" s="17">
-        <v>0</v>
-      </c>
-      <c r="D24" s="17">
-        <v>0</v>
-      </c>
-      <c r="E24" s="17">
-        <v>0</v>
-      </c>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="17">
-        <v>0</v>
-      </c>
-      <c r="B25" s="17">
-        <v>0</v>
-      </c>
-      <c r="C25" s="17">
-        <v>0</v>
-      </c>
-      <c r="D25" s="17">
-        <v>0</v>
-      </c>
-      <c r="E25" s="17">
-        <v>0</v>
-      </c>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17">
-        <v>0</v>
-      </c>
-      <c r="B26" s="17">
-        <v>0</v>
-      </c>
-      <c r="C26" s="17">
-        <v>0</v>
-      </c>
-      <c r="D26" s="17">
-        <v>0</v>
-      </c>
-      <c r="E26" s="17">
-        <v>0</v>
-      </c>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="5"/>
     </row>
     <row r="27" spans="1:6" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="17">
-        <v>0</v>
-      </c>
-      <c r="B27" s="17">
-        <v>0</v>
-      </c>
-      <c r="C27" s="17">
-        <v>0</v>
-      </c>
-      <c r="D27" s="17">
-        <v>0</v>
-      </c>
-      <c r="E27" s="17">
-        <v>0</v>
-      </c>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="31" t="s">
+      <c r="B28" s="40"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="33"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="41"/>
     </row>
     <row r="29" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -10073,7 +9466,7 @@
       <c r="C29" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="14"/>
+      <c r="D29" s="13"/>
       <c r="E29" s="4" t="s">
         <v>14</v>
       </c>
@@ -10082,71 +9475,39 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="17">
-        <v>0</v>
-      </c>
-      <c r="B30" s="17">
-        <v>0</v>
-      </c>
-      <c r="C30" s="17">
-        <v>0</v>
-      </c>
-      <c r="D30" s="15" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="17">
-        <v>0</v>
-      </c>
-      <c r="F30" s="17">
-        <v>0</v>
-      </c>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17">
-        <v>0</v>
-      </c>
-      <c r="B31" s="17">
-        <v>0</v>
-      </c>
-      <c r="C31" s="17">
-        <v>0</v>
-      </c>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
       <c r="D31" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="17">
-        <v>0</v>
-      </c>
-      <c r="F31" s="17">
-        <v>0</v>
-      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="17">
-        <v>0</v>
-      </c>
-      <c r="B32" s="17">
-        <v>0</v>
-      </c>
-      <c r="C32" s="17">
-        <v>0</v>
-      </c>
-      <c r="D32" s="34" t="s">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="35"/>
-      <c r="F32" s="36"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="44"/>
     </row>
     <row r="33" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="17">
-        <v>0</v>
-      </c>
-      <c r="B33" s="17">
-        <v>0</v>
-      </c>
-      <c r="C33" s="17">
-        <v>0</v>
-      </c>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
       <c r="D33" s="1"/>
       <c r="E33" s="4" t="s">
         <v>14</v>
@@ -10156,85 +9517,53 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="17">
-        <v>0</v>
-      </c>
-      <c r="B34" s="17">
-        <v>0</v>
-      </c>
-      <c r="C34" s="17">
-        <v>0</v>
-      </c>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
       <c r="D34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="17">
-        <v>0</v>
-      </c>
-      <c r="F34" s="17">
-        <v>0</v>
-      </c>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="17">
-        <v>0</v>
-      </c>
-      <c r="B35" s="17">
-        <v>0</v>
-      </c>
-      <c r="C35" s="17">
-        <v>0</v>
-      </c>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="17">
-        <v>0</v>
-      </c>
-      <c r="F35" s="17">
-        <v>0</v>
-      </c>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="17">
-        <f>SUM(B30:B35)</f>
-        <v>0</v>
-      </c>
-      <c r="C36" s="17">
-        <f>SUM(C30:C35)</f>
-        <v>0</v>
-      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
       <c r="D36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="45">
-        <v>0</v>
-      </c>
-      <c r="F36" s="45">
-        <v>0</v>
-      </c>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
     </row>
     <row r="37" spans="1:6" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="34" t="s">
+      <c r="B37" s="40"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="35"/>
-      <c r="F37" s="36"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="44"/>
     </row>
     <row r="38" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="46">
-        <v>0</v>
-      </c>
-      <c r="B38" s="46"/>
-      <c r="C38" s="46"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
       <c r="D38" s="6"/>
       <c r="E38" s="4" t="s">
         <v>14</v>
@@ -10244,104 +9573,84 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="47"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
       <c r="D39" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E39" s="17">
-        <v>0</v>
-      </c>
-      <c r="F39" s="17">
-        <v>0</v>
-      </c>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="47"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
       <c r="D40" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="17">
-        <v>0</v>
-      </c>
-      <c r="F40" s="17">
-        <v>0</v>
-      </c>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="47"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
       <c r="D41" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="17">
-        <v>0</v>
-      </c>
-      <c r="F41" s="17">
-        <v>0</v>
-      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
     </row>
     <row r="42" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="47"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
       <c r="D42" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="17">
-        <v>0</v>
-      </c>
-      <c r="F42" s="17">
-        <v>0</v>
-      </c>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
     </row>
     <row r="43" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="47"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
       <c r="D43" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E43" s="17">
-        <v>0</v>
-      </c>
-      <c r="F43" s="17">
-        <v>0</v>
-      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="47"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="47"/>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="47"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="47"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="47"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
+      <c r="A48" s="46"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="47"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="13">
